--- a/ResultadoEleicoesDistritos/SANTARÉM_BENAVENTE.xlsx
+++ b/ResultadoEleicoesDistritos/SANTARÉM_BENAVENTE.xlsx
@@ -597,64 +597,64 @@
         <v>7461</v>
       </c>
       <c r="H2" t="n">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="I2" t="n">
-        <v>715</v>
+        <v>732</v>
       </c>
       <c r="J2" t="n">
-        <v>3119</v>
+        <v>3208</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="L2" t="n">
-        <v>863</v>
+        <v>814</v>
       </c>
       <c r="M2" t="n">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="N2" t="n">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R2" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="S2" t="n">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="T2" t="n">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="U2" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="V2" t="n">
-        <v>4652</v>
+        <v>4796</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>4771</v>
+        <v>4658</v>
       </c>
       <c r="Y2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="n">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="AA2" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
